--- a/テーブル仕様書.xlsx
+++ b/テーブル仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1594,6 +1594,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,44 +1702,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1687,61 +1789,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,54 +1803,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2291,9 +2291,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>１</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2592,7 +2593,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K5"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -2603,18 +2604,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2632,16 +2633,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2655,70 +2656,64 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -2727,6 +2722,12 @@
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2739,7 +2740,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2749,45 +2750,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -2795,504 +2796,504 @@
         <v>42060</v>
       </c>
       <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="87" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="88"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="89"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="88"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="88"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="89"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="88"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="89"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="88"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="89"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="88"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="89"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="88"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="89"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="88"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="88"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="89"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="88"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="89"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="88"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="89"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="88"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="89"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="88"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="89"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="88"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="89"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="88"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="89"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="88"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="89"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="88"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="89"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="88"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="89"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="88"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="89"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="88"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="89"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="88"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="89"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="88"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="89"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="88"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="89"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="88"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="89"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="88"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="89"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="88"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="89"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="88"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="89"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="88"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="89"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="88"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="89"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="88"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="89"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="88"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="89"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="88"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="89"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="88"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="89"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="88"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="89"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="88"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="89"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="88"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="89"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="88"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="89"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="90"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="91"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3314,7 +3315,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -3329,27 +3330,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3361,25 +3362,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="33" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="58">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="82">
         <v>42060</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -3387,14 +3388,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3413,22 +3414,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3441,20 +3442,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -3467,20 +3468,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -3491,20 +3492,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -3517,20 +3518,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -3543,22 +3544,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -3571,22 +3572,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -3597,20 +3598,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -3625,22 +3626,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -3651,20 +3652,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -3677,20 +3678,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -3701,20 +3702,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -3727,13 +3728,41 @@
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A10:B10"/>
@@ -3747,34 +3776,6 @@
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,27 +3803,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3834,25 +3835,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="33" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="58">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="82">
         <v>42060</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -3860,14 +3861,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3886,22 +3887,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3914,20 +3915,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
@@ -3942,20 +3943,20 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
@@ -3966,20 +3967,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -3994,22 +3995,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -4020,20 +4021,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -4046,20 +4047,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -4070,20 +4071,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -4096,19 +4097,28 @@
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -4119,21 +4129,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル仕様書.xlsx
+++ b/テーブル仕様書.xlsx
@@ -4,26 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="E-R図" sheetId="2" r:id="rId2"/>
     <sheet name="質問MST" sheetId="4" r:id="rId3"/>
     <sheet name="回答MST " sheetId="5" r:id="rId4"/>
+    <sheet name="質問添付TR" sheetId="6" r:id="rId5"/>
+    <sheet name="回答添付TR " sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-R図'!$A$1:$K$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'回答MST '!$A$1:$N$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'回答添付TR '!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">質問MST!$A$1:$N$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">質問添付TR!$A$1:$N$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -554,6 +558,109 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問添付ID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filesize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答添付ID</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_attachments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_attachments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_attachments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問添付TR</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問の添付ファイルに関するTR</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答の添付ファイルに関するTR</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -638,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -759,94 +866,6 @@
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="dotted">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,6 +1551,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="dotted">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="dotted">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1539,7 +1773,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1567,241 +1801,277 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1824,13 +2094,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1841,7 +2111,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657601" y="2305050"/>
+          <a:off x="3648076" y="2305050"/>
           <a:ext cx="1143000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2135,15 +2405,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>146579</xdr:rowOff>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>892176</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:rowOff>148697</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2155,8 +2425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4796368" y="2517246"/>
-          <a:ext cx="1281641" cy="1059"/>
+          <a:off x="4791076" y="2547938"/>
+          <a:ext cx="1292225" cy="1059"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2295,6 +2565,573 @@
             <a:t>n</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3752850"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質問添付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="3743325"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回答添付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="6076950"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トランザクション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219576" y="2790825"/>
+          <a:ext cx="9524" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6654801" y="2791884"/>
+          <a:ext cx="3174" cy="951441"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="2838450"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3495675"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2838450"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="3495675"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2590,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -2604,18 +3441,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2633,87 +3470,144 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="3">
         <v>42060</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <v>42065</v>
+      </c>
       <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="1:11" ht="12" customHeight="1">
+      <c r="A6" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="100"/>
+    </row>
+    <row r="7" spans="1:11" ht="12" customHeight="1">
+      <c r="A7" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="11" spans="1:11" ht="12" customHeight="1">
+      <c r="C11" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -2722,12 +3616,6 @@
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2739,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2750,18 +3638,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="62"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
@@ -2779,24 +3667,28 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="3">
         <v>42060</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <v>42065</v>
+      </c>
       <c r="K2" s="26" t="s">
         <v>20</v>
       </c>
@@ -3315,7 +4207,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -3330,27 +4222,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="46"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3362,25 +4254,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="55" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="82">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="70">
         <v>42060</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -3388,14 +4280,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3414,22 +4306,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3442,20 +4334,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -3468,20 +4360,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -3492,20 +4384,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -3518,20 +4410,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -3544,22 +4436,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="72"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -3572,22 +4464,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -3598,20 +4490,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="72"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -3626,22 +4518,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -3652,20 +4544,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -3678,20 +4570,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="72"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -3702,20 +4594,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="72"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="69"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -3728,41 +4620,13 @@
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="67"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A10:B10"/>
@@ -3776,6 +4640,34 @@
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3803,27 +4695,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="46"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3835,25 +4727,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="55" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="82">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="70">
         <v>42060</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -3861,14 +4753,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -3887,22 +4779,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3915,20 +4807,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
@@ -3943,20 +4835,20 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
@@ -3967,20 +4859,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -3995,22 +4887,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -4021,20 +4913,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="72"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -4047,20 +4939,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -4071,20 +4963,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="72"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -4097,28 +4989,19 @@
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -4129,12 +5012,625 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="70">
+        <v>42065</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="10">
+        <v>255</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="70">
+        <v>42065</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="10">
+        <v>255</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル仕様書.xlsx
+++ b/テーブル仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="89">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1864,6 +1864,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1906,27 +1981,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1945,6 +1999,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1957,63 +2062,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2024,54 +2072,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3441,18 +3441,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3470,16 +3470,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3497,117 +3497,105 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="98" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1">
       <c r="C11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -3616,6 +3604,18 @@
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3638,18 +3638,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
@@ -3667,16 +3667,16 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -4207,7 +4207,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -4222,27 +4222,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4254,25 +4254,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="45" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="70">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="95">
         <v>42060</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4280,14 +4280,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4306,22 +4306,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4334,20 +4334,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -4384,20 +4384,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -4410,20 +4410,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4464,22 +4464,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="74"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="88"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -4490,20 +4490,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4518,22 +4518,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -4544,20 +4544,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -4570,20 +4570,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -4594,20 +4594,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="69"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4615,18 +4615,44 @@
         <v>64</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>37</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A10:B10"/>
@@ -4640,34 +4666,6 @@
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -4695,27 +4693,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4727,25 +4725,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="45" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="70">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="95">
         <v>42060</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4753,14 +4751,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4779,22 +4777,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4807,20 +4805,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4835,20 +4833,20 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
@@ -4859,20 +4857,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -4887,22 +4885,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -4913,20 +4911,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -4939,44 +4937,44 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -4984,24 +4982,31 @@
         <v>64</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>37</v>
-      </c>
+      <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -5012,21 +5017,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5054,27 +5050,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5086,25 +5082,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="45" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="70">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="95">
         <v>42065</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5112,14 +5108,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5138,22 +5134,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5166,20 +5162,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5194,20 +5190,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5220,20 +5216,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5246,20 +5242,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5270,20 +5266,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5294,32 +5290,13 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5329,6 +5306,25 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5356,27 +5352,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36"/>
+      <c r="K1" s="61"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5388,25 +5384,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="45" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="70">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="95">
         <v>42065</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5414,14 +5410,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5440,22 +5436,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5468,20 +5464,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5496,20 +5492,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5522,20 +5518,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5548,20 +5544,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5572,20 +5568,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5596,32 +5592,13 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5631,6 +5608,25 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル仕様書.xlsx
+++ b/テーブル仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,23 @@
     <sheet name="回答MST " sheetId="5" r:id="rId4"/>
     <sheet name="質問添付TR" sheetId="6" r:id="rId5"/>
     <sheet name="回答添付TR " sheetId="7" r:id="rId6"/>
+    <sheet name="利用者MST" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-R図'!$A$1:$K$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'回答MST '!$A$1:$N$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'回答添付TR '!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">質問MST!$A$1:$N$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">質問添付TR!$A$1:$N$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">利用者MST!$A$1:$N$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -661,6 +663,81 @@
     <rPh sb="10" eb="11">
       <t>カン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者MST</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問管理表の利用者に関するマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者ID</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者名</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -745,7 +822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1766,6 +1843,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color theme="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1773,7 +1893,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1864,6 +1984,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2072,6 +2207,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3137,6 +3275,91 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="1104900"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>利用者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3430,7 +3653,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -3441,18 +3664,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3470,16 +3693,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3497,105 +3720,124 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="12" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1">
       <c r="C11" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -3604,18 +3846,21 @@
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:K6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3628,7 +3873,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3638,18 +3883,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="77"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
@@ -3667,16 +3912,16 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -4207,7 +4452,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -4222,27 +4467,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4254,25 +4499,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="95">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="100">
         <v>42060</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4280,14 +4525,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4306,22 +4551,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4334,20 +4579,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -4360,20 +4605,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -4384,20 +4629,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -4410,20 +4655,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4436,22 +4681,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="89" t="s">
+      <c r="K8" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4464,22 +4709,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="88"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -4490,20 +4735,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4518,22 +4763,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -4544,20 +4789,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="90"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -4570,20 +4815,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="90"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -4594,20 +4839,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="90"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4618,10 +4863,10 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="80"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4677,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -4693,27 +4938,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4725,25 +4970,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="95">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="100">
         <v>42060</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4751,14 +4996,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4777,22 +5022,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4805,20 +5050,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="100" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4833,20 +5078,20 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="102" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="103"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
@@ -4857,20 +5102,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -4885,22 +5130,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -4911,20 +5156,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -4937,44 +5182,44 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="38" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -4982,13 +5227,13 @@
         <v>64</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5050,27 +5295,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5082,25 +5327,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="95">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="100">
         <v>42065</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5108,14 +5353,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5134,22 +5379,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5162,20 +5407,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5190,20 +5435,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5216,20 +5461,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5242,20 +5487,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5266,20 +5511,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5290,10 +5535,10 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5352,27 +5597,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5384,25 +5629,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="70" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="95">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="100">
         <v>42065</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5410,14 +5655,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5436,22 +5681,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5464,20 +5709,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5492,20 +5737,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5518,20 +5763,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5544,20 +5789,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="85"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5568,20 +5813,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5592,10 +5837,10 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5632,4 +5877,338 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="68"/>
+      <c r="G1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="100">
+        <v>42095</v>
+      </c>
+      <c r="K2" s="77"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="101"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="109"/>
+      <c r="E5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="10">
+        <v>255</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
+    </row>
+    <row r="10" spans="1:14" ht="12" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/テーブル仕様書.xlsx
+++ b/テーブル仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利用者ID</t>
     <rPh sb="0" eb="3">
       <t>リヨウシャ</t>
@@ -733,11 +729,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_digest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化パスワード</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1999,6 +2002,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2017,105 +2119,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2134,6 +2137,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2144,57 +2198,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3652,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -3664,18 +3667,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3693,16 +3696,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3720,132 +3723,130 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="48" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1">
       <c r="C11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:K6"/>
@@ -3855,12 +3856,14 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3915,13 +3918,13 @@
       <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -4467,27 +4470,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4499,25 +4502,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="100">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="93">
         <v>42060</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4525,14 +4528,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4551,22 +4554,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4579,20 +4582,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="103"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -4605,20 +4608,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -4629,20 +4632,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -4655,20 +4658,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4681,22 +4684,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4709,22 +4712,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -4735,20 +4738,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4763,22 +4766,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -4789,20 +4792,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -4815,20 +4818,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -4839,20 +4842,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4863,41 +4866,13 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A10:B10"/>
@@ -4911,6 +4886,34 @@
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4938,27 +4941,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4970,25 +4973,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="100">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="93">
         <v>42060</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4996,14 +4999,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5022,22 +5025,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5050,16 +5053,16 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="105" t="s">
         <v>31</v>
       </c>
@@ -5078,16 +5081,16 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="107" t="s">
         <v>54</v>
       </c>
@@ -5102,20 +5105,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -5130,22 +5133,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5156,20 +5159,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -5182,20 +5185,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -5206,20 +5209,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -5230,28 +5233,19 @@
       <c r="H11" s="37"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -5262,12 +5256,21 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5295,27 +5298,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5327,25 +5330,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="100">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="93">
         <v>42065</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5353,14 +5356,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5379,22 +5382,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5407,20 +5410,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="103"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5435,20 +5438,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5461,20 +5464,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5487,20 +5490,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5511,20 +5514,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5535,13 +5538,32 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5551,25 +5573,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5597,27 +5600,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5629,25 +5632,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="100">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="93">
         <v>42065</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5655,14 +5658,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5681,22 +5684,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5709,20 +5712,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="103"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5737,20 +5740,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5763,20 +5766,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5789,20 +5792,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5813,20 +5816,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5837,13 +5840,32 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5853,25 +5875,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5883,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -5899,27 +5902,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="34" t="s">
         <v>5</v>
       </c>
@@ -5931,25 +5934,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="100">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="93">
         <v>42095</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="4" t="s">
@@ -5957,14 +5960,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="35" t="s">
         <v>22</v>
       </c>
@@ -5983,22 +5986,22 @@
       <c r="J3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="101"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="84"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -6011,18 +6014,18 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104" t="s">
-        <v>97</v>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="16" t="s">
@@ -6037,18 +6040,18 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="108"/>
       <c r="E6" s="16" t="s">
@@ -6062,28 +6065,28 @@
         <v>37</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="107" t="s">
         <v>100</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
-    </row>
-    <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="107" t="s">
-        <v>99</v>
       </c>
       <c r="D7" s="108"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="10">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
@@ -6091,20 +6094,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="12" t="s">
         <v>34</v>
       </c>
@@ -6119,22 +6122,22 @@
         <v>49</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="89" t="s">
+      <c r="K8" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -6145,20 +6148,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -6169,13 +6172,34 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -6185,27 +6209,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル仕様書.xlsx
+++ b/テーブル仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12015"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,26 @@
     <sheet name="質問添付TR" sheetId="6" r:id="rId5"/>
     <sheet name="回答添付TR " sheetId="7" r:id="rId6"/>
     <sheet name="利用者MST" sheetId="8" r:id="rId7"/>
+    <sheet name="案件MST" sheetId="9" r:id="rId8"/>
+    <sheet name="案件利用者MST" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-R図'!$A$1:$K$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル一覧!$A$1:$K$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">案件MST!$A$1:$N$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">案件利用者MST!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'回答MST '!$A$1:$N$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'回答添付TR '!$A$1:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">質問MST!$A$1:$N$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">質問添付TR!$A$1:$N$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">利用者MST!$A$1:$N$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">利用者MST!$A$1:$N$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="121">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -740,6 +744,152 @@
     <t>暗号化パスワード</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adimn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0以外の場合は管理者権限を持つ利用者。デフォルト0</t>
+    <rPh sb="1" eb="3">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶋田　智文</t>
+    <rPh sb="0" eb="2">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモフミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> matters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件ID</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> matter_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件MST</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問の案件に関するマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matter_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件利用者MST</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件別の利用者に関するマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1889,6 +2039,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1896,7 +2083,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,6 +2189,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,81 +2333,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,6 +2351,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2147,57 +2412,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3280,16 +3494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3298,7 +3512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="1104900"/>
+          <a:off x="3676650" y="1123950"/>
           <a:ext cx="1143000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3358,6 +3572,680 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="2305050"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="2547938"/>
+          <a:ext cx="828676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="2343150"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>506942</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2343150"/>
+          <a:ext cx="192617" cy="188382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="1123950"/>
+          <a:ext cx="1143000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>利用者案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="1366838"/>
+          <a:ext cx="857250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1609725"/>
+          <a:ext cx="0" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="1143000"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>973667</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="1152525"/>
+          <a:ext cx="192617" cy="188382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="2076450"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125942</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="1638300"/>
+          <a:ext cx="192617" cy="188382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3653,9 +4541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -3667,18 +4555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3696,16 +4584,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3723,72 +4611,72 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="69" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="59" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="57"/>
@@ -3799,15 +4687,15 @@
       <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="56" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="57"/>
@@ -3818,35 +4706,81 @@
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-    </row>
-    <row r="11" spans="1:11" ht="12" customHeight="1">
-      <c r="C11" s="22"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" ht="12" customHeight="1">
+      <c r="A9" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" ht="12" customHeight="1">
+      <c r="A10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="12" customHeight="1">
+      <c r="C12" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:K7"/>
+  <mergeCells count="29">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:K6"/>
@@ -3856,14 +4790,12 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3876,7 +4808,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3886,18 +4818,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="81" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
@@ -3915,16 +4847,16 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
@@ -3935,10 +4867,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="3">
-        <v>42065</v>
+        <v>42118</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4454,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -4470,27 +5402,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4502,25 +5434,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42060</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4528,14 +5460,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -4554,22 +5486,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4582,20 +5514,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -4608,20 +5540,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
@@ -4632,20 +5564,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -4658,20 +5590,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4684,22 +5616,22 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="98" t="s">
+      <c r="K8" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4712,22 +5644,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="102"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
@@ -4738,20 +5670,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4766,22 +5698,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
@@ -4792,20 +5724,20 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="16" t="s">
         <v>69</v>
       </c>
@@ -4818,20 +5750,20 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="16" t="s">
         <v>46</v>
       </c>
@@ -4842,20 +5774,20 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="99"/>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
@@ -4866,13 +5798,41 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A10:B10"/>
@@ -4886,34 +5846,6 @@
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4941,27 +5873,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4973,25 +5905,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42060</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
@@ -4999,14 +5931,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -5025,22 +5957,22 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5053,20 +5985,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
@@ -5081,20 +6013,20 @@
         <v>56</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="16" t="s">
         <v>71</v>
       </c>
@@ -5105,20 +6037,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
@@ -5133,22 +6065,22 @@
         <v>49</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5159,20 +6091,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
@@ -5185,20 +6117,20 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
@@ -5209,20 +6141,20 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
@@ -5233,19 +6165,28 @@
       <c r="H11" s="37"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="102"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C8:D8"/>
@@ -5256,21 +6197,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5298,27 +6230,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5330,25 +6262,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42065</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5356,14 +6288,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5382,22 +6314,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5410,20 +6342,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5438,20 +6370,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5464,20 +6396,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5490,20 +6422,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5514,20 +6446,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5538,32 +6470,13 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5573,6 +6486,25 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5585,7 +6517,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -5600,27 +6532,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5632,25 +6564,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42065</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="4" t="s">
@@ -5658,14 +6590,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
@@ -5684,22 +6616,22 @@
       <c r="J3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -5712,20 +6644,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -5740,20 +6672,20 @@
       <c r="J5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
@@ -5766,20 +6698,20 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
@@ -5792,20 +6724,20 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
@@ -5816,20 +6748,20 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
@@ -5840,32 +6772,13 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -5875,6 +6788,25 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5884,10 +6816,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
@@ -5902,27 +6834,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="34" t="s">
         <v>5</v>
       </c>
@@ -5934,40 +6866,44 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="93">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
         <v>42095</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="3">
+        <v>42118</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="35" t="s">
         <v>22</v>
       </c>
@@ -5986,22 +6922,22 @@
       <c r="J3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
@@ -6014,20 +6950,20 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
@@ -6040,20 +6976,20 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="16" t="s">
         <v>69</v>
       </c>
@@ -6068,20 +7004,20 @@
         <v>98</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="107" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
@@ -6094,22 +7030,22 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="60"/>
+      <c r="A8" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="46"/>
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="F8" s="11">
         <v>4</v>
@@ -6119,87 +7055,96 @@
         <v>37</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
+      <c r="K8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
+      <c r="K9" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="60"/>
+        <v>38</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="61"/>
       <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
+    </row>
+    <row r="11" spans="1:14" ht="12" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F2"/>
@@ -6209,6 +7154,604 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:N10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
+        <v>42118</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11">
+        <v>255</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="13.625" style="1"/>
+    <col min="7" max="9" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="13.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="109">
+        <v>42118</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
